--- a/Retail Wholesale - Restaurants/SHAK.xlsx
+++ b/Retail Wholesale - Restaurants/SHAK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Retail Wholesale - Restaurants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1971538B-2C70-4E1A-BCE1-1143F40E6D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70F9735-06F4-4D81-9A35-05C0DFD51EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1786,7 +1786,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1961,6 +1961,7 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2018,17 +2019,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2460,34 +2450,34 @@
             <c:strLit>
               <c:ptCount val="10"/>
               <c:pt idx="0">
-                <c:v>100%</c:v>
+                <c:v>1</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>200%</c:v>
+                <c:v>2</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>300%</c:v>
+                <c:v>3</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>400%</c:v>
+                <c:v>4</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>500%</c:v>
+                <c:v>5</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>600%</c:v>
+                <c:v>6</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>700%</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:pt idx="7">
-                <c:v>800%</c:v>
+                <c:v>8</c:v>
               </c:pt>
               <c:pt idx="8">
-                <c:v>900%</c:v>
+                <c:v>9</c:v>
               </c:pt>
               <c:pt idx="9">
-                <c:v>1000%</c:v>
+                <c:v>10</c:v>
               </c:pt>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
@@ -11789,8 +11779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12178,9 +12168,9 @@
       <c r="E17" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="150"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="152"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="153"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -12193,9 +12183,9 @@
       <c r="E18" t="s">
         <v>182</v>
       </c>
-      <c r="L18" s="153"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="155"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="155"/>
+      <c r="N18" s="156"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -12208,9 +12198,9 @@
       <c r="E19" t="s">
         <v>183</v>
       </c>
-      <c r="L19" s="153"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="155"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="156"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -12223,9 +12213,9 @@
       <c r="E20" t="s">
         <v>184</v>
       </c>
-      <c r="L20" s="153"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="155"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="156"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -12235,9 +12225,9 @@
         <f>Model!I6/Model!H6-1</f>
         <v>0.15999999999999992</v>
       </c>
-      <c r="L21" s="153"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="155"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="155"/>
+      <c r="N21" s="156"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -12247,9 +12237,9 @@
         <f>Model!G16+Model!G13</f>
         <v>97.162999999999599</v>
       </c>
-      <c r="L22" s="153"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="155"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="156"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -12259,9 +12249,9 @@
         <f>Model!G19</f>
         <v>16.979999999999592</v>
       </c>
-      <c r="L23" s="153"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="155"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="156"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -12271,9 +12261,9 @@
         <f>Model!U27</f>
         <v>0.2453427531469593</v>
       </c>
-      <c r="L24" s="153"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="155"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="155"/>
+      <c r="N24" s="156"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -12283,9 +12273,9 @@
         <f>Model!U28</f>
         <v>3.0546989535412888E-2</v>
       </c>
-      <c r="L25" s="153"/>
-      <c r="M25" s="154"/>
-      <c r="N25" s="155"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="155"/>
+      <c r="N25" s="156"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -12295,9 +12285,9 @@
         <f>C12/C23</f>
         <v>248.0384570082509</v>
       </c>
-      <c r="L26" s="153"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="155"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="156"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -12310,9 +12300,9 @@
       <c r="E27" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="153"/>
-      <c r="M27" s="154"/>
-      <c r="N27" s="155"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="156"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -12325,9 +12315,9 @@
       <c r="E28" t="s">
         <v>185</v>
       </c>
-      <c r="L28" s="156"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="158"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="158"/>
+      <c r="N28" s="159"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -12417,11 +12407,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
   <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V13" sqref="V13"/>
+      <selection pane="bottomRight" activeCell="A71" sqref="A71:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12429,7 +12419,6 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="20" max="20" width="11.42578125" style="169"/>
     <col min="21" max="21" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
@@ -12484,7 +12473,7 @@
       <c r="S2" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="169" t="s">
+      <c r="T2" t="s">
         <v>62</v>
       </c>
       <c r="U2" s="13" t="s">
@@ -12552,7 +12541,7 @@
       <c r="S3" s="10">
         <v>275.77499999999998</v>
       </c>
-      <c r="T3" s="170">
+      <c r="T3" s="10">
         <v>280.55200000000002</v>
       </c>
       <c r="U3" s="15">
@@ -12602,7 +12591,7 @@
       <c r="S4" s="10">
         <v>10.468</v>
       </c>
-      <c r="T4" s="170">
+      <c r="T4" s="10">
         <v>9.952</v>
       </c>
       <c r="U4" s="15">
@@ -12671,7 +12660,7 @@
         <f>SUM(S3:S4)</f>
         <v>286.24299999999999</v>
       </c>
-      <c r="T5" s="171">
+      <c r="T5" s="11">
         <f>SUM(T3:T4)</f>
         <v>290.50400000000002</v>
       </c>
@@ -12719,10 +12708,10 @@
       <c r="S6" s="131">
         <v>280.24</v>
       </c>
-      <c r="T6" s="172">
+      <c r="T6" s="130">
         <v>290.66000000000003</v>
       </c>
-      <c r="U6" s="179">
+      <c r="U6" s="150">
         <v>290.66000000000003</v>
       </c>
       <c r="V6">
@@ -12777,7 +12766,7 @@
       <c r="S7" s="10">
         <v>80.289000000000001</v>
       </c>
-      <c r="T7" s="170">
+      <c r="T7" s="10">
         <v>80.253</v>
       </c>
       <c r="U7" s="15">
@@ -12829,7 +12818,7 @@
       <c r="S8" s="10">
         <v>78.599000000000004</v>
       </c>
-      <c r="T8" s="170">
+      <c r="T8" s="10">
         <v>81.509</v>
       </c>
       <c r="U8" s="15">
@@ -12881,7 +12870,7 @@
       <c r="S9" s="10">
         <v>41.097000000000001</v>
       </c>
-      <c r="T9" s="170">
+      <c r="T9" s="10">
         <v>41.856000000000002</v>
       </c>
       <c r="U9" s="15">
@@ -12933,7 +12922,7 @@
       <c r="S10" s="10">
         <v>21.161999999999999</v>
       </c>
-      <c r="T10" s="170">
+      <c r="T10" s="10">
         <v>22.187999999999999</v>
       </c>
       <c r="U10" s="15">
@@ -13004,7 +12993,7 @@
         <f t="shared" si="8"/>
         <v>221.14700000000002</v>
       </c>
-      <c r="T11" s="171">
+      <c r="T11" s="11">
         <f t="shared" si="8"/>
         <v>225.80599999999998</v>
       </c>
@@ -13058,7 +13047,7 @@
       <c r="S12" s="10">
         <v>35.816000000000003</v>
       </c>
-      <c r="T12" s="170">
+      <c r="T12" s="10">
         <v>35.944000000000003</v>
       </c>
       <c r="U12" s="15">
@@ -13110,7 +13099,7 @@
       <c r="S13" s="10">
         <v>24.538</v>
       </c>
-      <c r="T13" s="170">
+      <c r="T13" s="10">
         <v>25.440999999999999</v>
       </c>
       <c r="U13" s="15">
@@ -13162,7 +13151,7 @@
       <c r="S14" s="10">
         <v>5.1280000000000001</v>
       </c>
-      <c r="T14" s="170">
+      <c r="T14" s="10">
         <v>2.7530000000000001</v>
       </c>
       <c r="U14" s="15">
@@ -13214,7 +13203,7 @@
       <c r="S15" s="10">
         <v>0.90900000000000003</v>
       </c>
-      <c r="T15" s="170">
+      <c r="T15" s="10">
         <v>0.52600000000000002</v>
       </c>
       <c r="U15" s="15">
@@ -13287,7 +13276,7 @@
         <f t="shared" si="15"/>
         <v>-1.2950000000000159</v>
       </c>
-      <c r="T16" s="171">
+      <c r="T16" s="11">
         <f t="shared" si="15"/>
         <v>3.4000000000048658E-2</v>
       </c>
@@ -13341,7 +13330,7 @@
       <c r="S17" s="10">
         <v>3.2709999999999999</v>
       </c>
-      <c r="T17" s="170">
+      <c r="T17" s="10">
         <v>3.206</v>
       </c>
       <c r="U17" s="15">
@@ -13393,7 +13382,7 @@
       <c r="S18" s="10">
         <v>-0.47599999999999998</v>
       </c>
-      <c r="T18" s="170">
+      <c r="T18" s="10">
         <v>-0.50800000000000001</v>
       </c>
       <c r="U18" s="15">
@@ -13433,7 +13422,7 @@
         <v>1450</v>
       </c>
       <c r="L19" s="11">
-        <f t="shared" ref="L19:U19" si="18">L16+SUM(L17:L18)</f>
+        <f t="shared" ref="L19:S19" si="18">L16+SUM(L17:L18)</f>
         <v>-15.579000000000002</v>
       </c>
       <c r="M19" s="11">
@@ -13464,7 +13453,7 @@
         <f t="shared" si="18"/>
         <v>1.499999999999984</v>
       </c>
-      <c r="T19" s="171">
+      <c r="T19" s="11">
         <f t="shared" ref="T19:U19" si="19">T16+SUM(T17:T18)</f>
         <v>2.7320000000000486</v>
       </c>
@@ -13518,7 +13507,7 @@
       <c r="S20" s="10">
         <v>-5.2960000000000003</v>
       </c>
-      <c r="T20" s="170">
+      <c r="T20" s="10">
         <v>0.51800000000000002</v>
       </c>
       <c r="U20" s="15">
@@ -13570,7 +13559,7 @@
       <c r="S21" s="10">
         <v>0.03</v>
       </c>
-      <c r="T21" s="170">
+      <c r="T21" s="10">
         <v>0.17399999999999999</v>
       </c>
       <c r="U21" s="15">
@@ -13635,7 +13624,7 @@
         <f t="shared" si="26"/>
         <v>6.765999999999984</v>
       </c>
-      <c r="T22" s="171">
+      <c r="T22" s="11">
         <f t="shared" si="26"/>
         <v>2.0400000000000489</v>
       </c>
@@ -13689,7 +13678,7 @@
       <c r="S23" s="10">
         <v>39.47</v>
       </c>
-      <c r="T23" s="170">
+      <c r="T23" s="10">
         <v>39.515000000000001</v>
       </c>
       <c r="U23" s="15">
@@ -13754,7 +13743,7 @@
         <f>S22/S23</f>
         <v>0.17142133265771431</v>
       </c>
-      <c r="T24" s="173">
+      <c r="T24" s="2">
         <f>T22/T23</f>
         <v>5.1625964823485991E-2</v>
       </c>
@@ -13812,7 +13801,7 @@
         <f>S50</f>
         <v>2.3461678499908625E-2</v>
       </c>
-      <c r="T25" s="174">
+      <c r="T25" s="140">
         <f>T50</f>
         <v>0.12753748100433324</v>
       </c>
@@ -13860,7 +13849,7 @@
       <c r="S26" s="129">
         <v>0.01</v>
       </c>
-      <c r="T26" s="175">
+      <c r="T26" s="46">
         <v>0.1</v>
       </c>
       <c r="U26" s="142">
@@ -13998,7 +13987,7 @@
         <f t="shared" si="32"/>
         <v>2.3637259251754573E-2</v>
       </c>
-      <c r="T28" s="176">
+      <c r="T28" s="4">
         <f t="shared" ref="T28:U28" si="33">T22/T5</f>
         <v>7.0222785228432269E-3</v>
       </c>
@@ -14041,27 +14030,27 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4">
-        <f>P5/L5-1</f>
+        <f t="shared" ref="P29:U29" si="34">P5/L5-1</f>
         <v>0.24527633966104689</v>
       </c>
       <c r="Q29" s="4">
-        <f>Q5/M5-1</f>
+        <f t="shared" si="34"/>
         <v>0.1779096172514214</v>
       </c>
       <c r="R29" s="4">
-        <f>R5/N5-1</f>
+        <f t="shared" si="34"/>
         <v>0.21242329268613869</v>
       </c>
       <c r="S29" s="4">
-        <f>S5/O5-1</f>
+        <f t="shared" si="34"/>
         <v>0.20003437737130492</v>
       </c>
-      <c r="T29" s="176">
-        <f>T5/P5-1</f>
+      <c r="T29" s="4">
+        <f t="shared" si="34"/>
         <v>0.14697683967814035</v>
       </c>
       <c r="U29" s="7">
-        <f>U5/Q5-1</f>
+        <f t="shared" si="34"/>
         <v>0.16442302385901675</v>
       </c>
     </row>
@@ -14092,38 +14081,38 @@
       <c r="H30" s="115"/>
       <c r="I30" s="115"/>
       <c r="L30" s="4">
-        <f t="shared" ref="L30:S30" si="34">L12/L5</f>
+        <f t="shared" ref="L30:S30" si="35">L12/L5</f>
         <v>0.154313612696727</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.12778654139509082</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.11821485949063711</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.13501502961904002</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.1236230545092744</v>
       </c>
       <c r="Q30" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.11580360920512867</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.11201381572516265</v>
       </c>
       <c r="S30" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.12512445719196627</v>
       </c>
-      <c r="T30" s="176">
+      <c r="T30" s="4">
         <f>T12/T5</f>
         <v>0.12372979373777986</v>
       </c>
@@ -14139,15 +14128,15 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4">
-        <f t="shared" ref="E31:G32" si="35">E3/D3-1</f>
+        <f t="shared" ref="E31:G32" si="36">E3/D3-1</f>
         <v>0.41207570422187523</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.21578094208442367</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.20425069311031097</v>
       </c>
       <c r="H31" s="115"/>
@@ -14157,27 +14146,27 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4">
-        <f t="shared" ref="P31:Q31" si="36">P3/L3-1</f>
+        <f t="shared" ref="P31:Q31" si="37">P3/L3-1</f>
         <v>0.24118481028095795</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.17375164758309647</v>
       </c>
       <c r="R31" s="4">
-        <f t="shared" ref="R31:U32" si="37">R3/N3-1</f>
+        <f t="shared" ref="R31:U32" si="38">R3/N3-1</f>
         <v>0.20719267793768603</v>
       </c>
       <c r="S31" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.19941806857918265</v>
       </c>
-      <c r="T31" s="176">
-        <f t="shared" si="37"/>
+      <c r="T31" s="4">
+        <f t="shared" si="38"/>
         <v>0.1486075970096703</v>
       </c>
       <c r="U31" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.16680035139987015</v>
       </c>
     </row>
@@ -14188,15 +14177,15 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.50677637947725085</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.25345326052039829</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.30426704254228598</v>
       </c>
       <c r="H32" s="115"/>
@@ -14206,27 +14195,27 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4">
-        <f t="shared" ref="P32:Q32" si="38">P4/L4-1</f>
+        <f t="shared" ref="P32:Q32" si="39">P4/L4-1</f>
         <v>0.3672727272727272</v>
       </c>
       <c r="Q32" s="4">
+        <f t="shared" si="39"/>
+        <v>0.29838919199792135</v>
+      </c>
+      <c r="R32" s="4">
         <f t="shared" si="38"/>
-        <v>0.29838919199792135</v>
-      </c>
-      <c r="R32" s="4">
-        <f t="shared" si="37"/>
         <v>0.35053530614699868</v>
       </c>
       <c r="S32" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.21650203370133636</v>
       </c>
-      <c r="T32" s="176">
-        <f t="shared" si="37"/>
+      <c r="T32" s="4">
+        <f t="shared" si="38"/>
         <v>0.10283687943262421</v>
       </c>
       <c r="U32" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.10215107553776903</v>
       </c>
     </row>
@@ -14263,23 +14252,23 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4">
-        <f>P22/L22-1</f>
+        <f t="shared" ref="P33:U33" si="40">P22/L22-1</f>
         <v>-0.8490454634914395</v>
       </c>
       <c r="Q33" s="4">
-        <f>Q22/M22-1</f>
+        <f t="shared" si="40"/>
         <v>-6.8484848484848992</v>
       </c>
       <c r="R33" s="4">
-        <f>R22/N22-1</f>
+        <f t="shared" si="40"/>
         <v>-4.7682806324109892</v>
       </c>
       <c r="S33" s="4">
-        <f>S22/O22-1</f>
+        <f t="shared" si="40"/>
         <v>-1.8716825560422592</v>
       </c>
-      <c r="T33" s="176">
-        <f>T22/P22-1</f>
+      <c r="T33" s="4">
+        <f t="shared" si="40"/>
         <v>-2.3298565840939105</v>
       </c>
       <c r="U33" s="7">
@@ -14299,45 +14288,45 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3">
-        <f t="shared" ref="D36:G39" si="39">(D7/D$5)/(C7/C$5)-1</f>
+        <f t="shared" ref="D36:G39" si="41">(D7/D$5)/(C7/C$5)-1</f>
         <v>3.6696863491616272E-2</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5.9100500165647496E-3</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-1.5252244922036362E-2</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-3.4434898456266905E-2</v>
       </c>
       <c r="I36" s="124"/>
       <c r="L36" s="3"/>
       <c r="P36" s="3">
-        <f t="shared" ref="P36:U39" si="40">(P7/P$5)/(L7/L$5)-1</f>
+        <f t="shared" ref="P36:U39" si="42">(P7/P$5)/(L7/L$5)-1</f>
         <v>-3.7549261194294026E-2</v>
       </c>
       <c r="Q36" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-2.4788410808216144E-2</v>
       </c>
       <c r="R36" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-6.0736632498444965E-2</v>
       </c>
       <c r="S36" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-1.5210949504696925E-2</v>
       </c>
       <c r="T36" s="39">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-2.5119060934258752E-2</v>
       </c>
       <c r="U36" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-3.6371475731489467E-2</v>
       </c>
     </row>
@@ -14347,45 +14336,45 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.10877541091920295</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-3.0592986791405319E-2</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-1.6983176862881311E-2</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-2.1111683943088155E-2</v>
       </c>
       <c r="I37" s="123"/>
       <c r="L37" s="3"/>
       <c r="P37" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-1.3701111531674637E-2</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-3.105110314259163E-2</v>
       </c>
       <c r="R37" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-2.7250918544309721E-2</v>
       </c>
       <c r="S37" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-1.3654443816995765E-2</v>
       </c>
       <c r="T37" s="39">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-4.3086725945171489E-2</v>
       </c>
       <c r="U37" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-1.0303357788567724E-2</v>
       </c>
     </row>
@@ -14395,44 +14384,44 @@
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.20362925045158642</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-1.524319783110395E-2</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4.4066292475023694E-2</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-4.5545975644918357E-2</v>
       </c>
       <c r="L38" s="3"/>
       <c r="P38" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-7.0139632705617072E-2</v>
       </c>
       <c r="Q38" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-4.652566349234788E-2</v>
       </c>
       <c r="R38" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-8.6383418699529924E-2</v>
       </c>
       <c r="S38" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.7787651933335535E-2</v>
       </c>
       <c r="T38" s="39">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.4551590987174983E-2</v>
       </c>
       <c r="U38" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.5351333892659662E-2</v>
       </c>
     </row>
@@ -14442,44 +14431,44 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.21074901575374061</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-0.1887270082206195</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-4.9600553446799589E-2</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-3.4957596389441514E-2</v>
       </c>
       <c r="L39" s="3"/>
       <c r="P39" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-8.3141302458677013E-2</v>
       </c>
       <c r="Q39" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.2026224127415013E-3</v>
       </c>
       <c r="R39" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-3.4243105084885705E-2</v>
       </c>
       <c r="S39" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-3.3090535675324051E-2</v>
       </c>
       <c r="T39" s="39">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.0992694715056954E-2</v>
       </c>
       <c r="U39" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>7.3410075491522342E-3</v>
       </c>
     </row>
@@ -14524,43 +14513,43 @@
       <c r="F42" s="3"/>
       <c r="G42" s="6"/>
       <c r="L42" s="143">
-        <f t="shared" ref="L42:T42" si="41">L22</f>
+        <f t="shared" ref="L42:T42" si="43">L22</f>
         <v>-10.162000000000003</v>
       </c>
       <c r="M42" s="143">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-1.1879999999999882</v>
       </c>
       <c r="N42" s="143">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-2.0240000000000218</v>
       </c>
       <c r="O42" s="143">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-7.7619999999999649</v>
       </c>
       <c r="P42" s="143">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-1.5339999999999927</v>
       </c>
       <c r="Q42" s="143">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>6.9479999999999906</v>
       </c>
       <c r="R42" s="143">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>7.6269999999999243</v>
       </c>
       <c r="S42" s="143">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>6.765999999999984</v>
       </c>
       <c r="T42" s="143">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2.0400000000000489</v>
       </c>
       <c r="U42" s="144">
-        <f t="shared" ref="U42" si="42">U22</f>
+        <f t="shared" ref="U42" si="44">U22</f>
         <v>9.6680000000000383</v>
       </c>
     </row>
@@ -14574,43 +14563,43 @@
       <c r="F43" s="3"/>
       <c r="G43" s="6"/>
       <c r="L43" s="143">
-        <f t="shared" ref="L43:T43" si="43">L21</f>
+        <f t="shared" ref="L43:T43" si="45">L21</f>
         <v>-1.1200000000000001</v>
       </c>
       <c r="M43" s="143">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-0.115</v>
       </c>
       <c r="N43" s="143">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-0.28699999999999998</v>
       </c>
       <c r="O43" s="143">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-0.35399999999999998</v>
       </c>
       <c r="P43" s="143">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-8.7999999999999995E-2</v>
       </c>
       <c r="Q43" s="143">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="R43" s="143">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.50900000000000001</v>
       </c>
       <c r="S43" s="143">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.03</v>
       </c>
       <c r="T43" s="143">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.17399999999999999</v>
       </c>
       <c r="U43" s="144">
-        <f t="shared" ref="U43" si="44">U21</f>
+        <f t="shared" ref="U43" si="46">U21</f>
         <v>0.71399999999999997</v>
       </c>
     </row>
@@ -14791,19 +14780,19 @@
       <c r="F49" s="133"/>
       <c r="G49" s="134"/>
       <c r="L49" s="147">
-        <f t="shared" ref="L49:S49" si="45">SUM(L42:L48)</f>
+        <f t="shared" ref="L49:S49" si="47">SUM(L42:L48)</f>
         <v>-8.158000000000003</v>
       </c>
       <c r="M49" s="147">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.13100000000001188</v>
       </c>
       <c r="N49" s="147">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-2.3220000000000218</v>
       </c>
       <c r="O49" s="147">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-2.5919999999999632</v>
       </c>
       <c r="P49" s="147">
@@ -14811,15 +14800,15 @@
         <v>-0.28999999999999276</v>
       </c>
       <c r="Q49" s="147">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>7.8799999999999919</v>
       </c>
       <c r="R49" s="147">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>7.5369999999999244</v>
       </c>
       <c r="S49" s="147">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.0309999999999846</v>
       </c>
       <c r="T49" s="147">
@@ -14899,15 +14888,15 @@
         <v>37</v>
       </c>
       <c r="C53" s="11">
-        <f t="shared" ref="C53:E53" si="46">C54+C55-C71</f>
+        <f t="shared" ref="C53:E53" si="48">C54+C55-C71</f>
         <v>0</v>
       </c>
       <c r="D53" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>183.76</v>
       </c>
       <c r="E53" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>138.864</v>
       </c>
       <c r="F53" s="11">
@@ -14923,43 +14912,43 @@
         <v>0</v>
       </c>
       <c r="L53" s="11">
-        <f t="shared" ref="L53:S53" si="47">L54+L55-L71</f>
+        <f t="shared" ref="L53:S53" si="49">L54+L55-L71</f>
         <v>0</v>
       </c>
       <c r="M53" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="N53" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="O53" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>66.638999999999953</v>
       </c>
       <c r="P53" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>48.579000000000008</v>
       </c>
       <c r="Q53" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>50.121000000000038</v>
       </c>
       <c r="R53" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>39.601999999999975</v>
       </c>
       <c r="S53" s="11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>47.578000000000003</v>
       </c>
-      <c r="T53" s="171">
-        <f t="shared" ref="T53:U53" si="48">T54+T55-T71</f>
+      <c r="T53" s="11">
+        <f t="shared" ref="T53" si="50">T54+T55-T71</f>
         <v>38.874999999999972</v>
       </c>
       <c r="U53" s="14">
-        <f t="shared" ref="U53" si="49">U54+U55-U71</f>
+        <f t="shared" ref="U53" si="51">U54+U55-U71</f>
         <v>58.252000000000038</v>
       </c>
     </row>
@@ -15000,7 +14989,7 @@
         <f>G54</f>
         <v>224.65299999999999</v>
       </c>
-      <c r="T54" s="170">
+      <c r="T54" s="10">
         <v>260.20299999999997</v>
       </c>
       <c r="U54" s="15">
@@ -15044,7 +15033,7 @@
         <f>G55</f>
         <v>68.561000000000007</v>
       </c>
-      <c r="T55" s="170">
+      <c r="T55" s="10">
         <v>24.57</v>
       </c>
       <c r="U55" s="15">
@@ -15088,7 +15077,7 @@
         <f>G56</f>
         <v>16.847000000000001</v>
       </c>
-      <c r="T56" s="170">
+      <c r="T56" s="10">
         <v>14.458</v>
       </c>
       <c r="U56" s="15">
@@ -15132,7 +15121,7 @@
         <f>G57</f>
         <v>5.4039999999999999</v>
       </c>
-      <c r="T57" s="170">
+      <c r="T57" s="10">
         <v>5.0730000000000004</v>
       </c>
       <c r="U57" s="15">
@@ -15176,7 +15165,7 @@
         <f>G58</f>
         <v>18.966999999999999</v>
       </c>
-      <c r="T58" s="170">
+      <c r="T58" s="10">
         <v>21.885000000000002</v>
       </c>
       <c r="U58" s="15">
@@ -15208,43 +15197,43 @@
         <v>334.43199999999996</v>
       </c>
       <c r="L59" s="11">
-        <f t="shared" ref="L59:S59" si="50">SUM(L54:L58)</f>
+        <f t="shared" ref="L59:S59" si="52">SUM(L54:L58)</f>
         <v>0</v>
       </c>
       <c r="M59" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="N59" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="O59" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>343.988</v>
       </c>
       <c r="P59" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>330.07400000000001</v>
       </c>
       <c r="Q59" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>329.51800000000003</v>
       </c>
       <c r="R59" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>323.23599999999999</v>
       </c>
       <c r="S59" s="11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>334.43199999999996</v>
       </c>
-      <c r="T59" s="171">
-        <f t="shared" ref="T59:U59" si="51">SUM(T54:T58)</f>
+      <c r="T59" s="11">
+        <f t="shared" ref="T59" si="53">SUM(T54:T58)</f>
         <v>326.18899999999996</v>
       </c>
       <c r="U59" s="14">
-        <f t="shared" ref="U59" si="52">SUM(U54:U58)</f>
+        <f t="shared" ref="U59" si="54">SUM(U54:U58)</f>
         <v>345.68000000000006</v>
       </c>
     </row>
@@ -15285,7 +15274,7 @@
         <f>G60</f>
         <v>530.995</v>
       </c>
-      <c r="T60" s="170">
+      <c r="T60" s="10">
         <v>537.62099999999998</v>
       </c>
       <c r="U60" s="15">
@@ -15329,7 +15318,7 @@
         <f>G61</f>
         <v>398.29599999999999</v>
       </c>
-      <c r="T61" s="170">
+      <c r="T61" s="10">
         <v>410.25400000000002</v>
       </c>
       <c r="U61" s="15">
@@ -15373,7 +15362,7 @@
         <f>G62</f>
         <v>326.20800000000003</v>
       </c>
-      <c r="T62" s="170">
+      <c r="T62" s="10">
         <v>329.95600000000002</v>
       </c>
       <c r="U62" s="15">
@@ -15417,7 +15406,7 @@
         <f>G63</f>
         <v>15.926</v>
       </c>
-      <c r="T63" s="170">
+      <c r="T63" s="10">
         <v>14.811999999999999</v>
       </c>
       <c r="U63" s="15">
@@ -15449,43 +15438,43 @@
         <v>1605.857</v>
       </c>
       <c r="L64" s="11">
-        <f t="shared" ref="L64:S64" si="53">SUM(L59:L63)</f>
+        <f t="shared" ref="L64:S64" si="55">SUM(L59:L63)</f>
         <v>0</v>
       </c>
       <c r="M64" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="N64" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="O64" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1511.95</v>
       </c>
       <c r="P64" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1506.9150000000002</v>
       </c>
       <c r="Q64" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1532.816</v>
       </c>
       <c r="R64" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1564.856</v>
       </c>
       <c r="S64" s="11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1605.857</v>
       </c>
-      <c r="T64" s="171">
-        <f t="shared" ref="T64:U64" si="54">SUM(T59:T63)</f>
+      <c r="T64" s="11">
+        <f t="shared" ref="T64:U64" si="56">SUM(T59:T63)</f>
         <v>1618.8319999999999</v>
       </c>
       <c r="U64" s="14">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1661.758</v>
       </c>
     </row>
@@ -15526,7 +15515,7 @@
         <f>G65</f>
         <v>22.273</v>
       </c>
-      <c r="T65" s="170">
+      <c r="T65" s="10">
         <v>15.163</v>
       </c>
       <c r="U65" s="15">
@@ -15570,7 +15559,7 @@
         <f>G66</f>
         <v>54.741999999999997</v>
       </c>
-      <c r="T66" s="170">
+      <c r="T66" s="10">
         <v>57.366</v>
       </c>
       <c r="U66" s="15">
@@ -15614,7 +15603,7 @@
         <f>G67</f>
         <v>20.945</v>
       </c>
-      <c r="T67" s="170">
+      <c r="T67" s="10">
         <v>19.248999999999999</v>
       </c>
       <c r="U67" s="15">
@@ -15658,7 +15647,7 @@
         <f>G68</f>
         <v>49.003999999999998</v>
       </c>
-      <c r="T68" s="170">
+      <c r="T68" s="10">
         <v>50.78</v>
       </c>
       <c r="U68" s="15">
@@ -15702,7 +15691,7 @@
         <f>G69</f>
         <v>17.103000000000002</v>
       </c>
-      <c r="T69" s="170">
+      <c r="T69" s="10">
         <v>18.524999999999999</v>
       </c>
       <c r="U69" s="15">
@@ -15734,43 +15723,43 @@
         <v>164.06700000000001</v>
       </c>
       <c r="L70" s="11">
-        <f t="shared" ref="L70:S70" si="55">SUM(L65:L69)</f>
+        <f t="shared" ref="L70:S70" si="57">SUM(L65:L69)</f>
         <v>0</v>
       </c>
       <c r="M70" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="N70" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="O70" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>147.71799999999999</v>
       </c>
       <c r="P70" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>143.05199999999999</v>
       </c>
       <c r="Q70" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>150.185</v>
       </c>
       <c r="R70" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>152.17699999999999</v>
       </c>
       <c r="S70" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>164.06700000000001</v>
       </c>
-      <c r="T70" s="171">
-        <f t="shared" ref="T70:U70" si="56">SUM(T65:T69)</f>
+      <c r="T70" s="11">
+        <f t="shared" ref="T70:U70" si="58">SUM(T65:T69)</f>
         <v>161.083</v>
       </c>
       <c r="U70" s="14">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>168.08799999999999</v>
       </c>
     </row>
@@ -15811,7 +15800,7 @@
         <f>G71</f>
         <v>245.636</v>
       </c>
-      <c r="T71" s="170">
+      <c r="T71" s="10">
         <v>245.898</v>
       </c>
       <c r="U71" s="15">
@@ -15855,7 +15844,7 @@
         <f>G72</f>
         <v>464.53300000000002</v>
       </c>
-      <c r="T72" s="170">
+      <c r="T72" s="10">
         <v>476.70400000000001</v>
       </c>
       <c r="U72" s="15">
@@ -15899,7 +15888,7 @@
         <f>G73</f>
         <v>235.613</v>
       </c>
-      <c r="T73" s="170">
+      <c r="T73" s="10">
         <v>236.72800000000001</v>
       </c>
       <c r="U73" s="15">
@@ -15943,7 +15932,7 @@
         <f>G74</f>
         <v>26.638000000000002</v>
       </c>
-      <c r="T74" s="170">
+      <c r="T74" s="10">
         <v>26.126000000000001</v>
       </c>
       <c r="U74" s="15">
@@ -15975,43 +15964,43 @@
         <v>1136.4869999999999</v>
       </c>
       <c r="L75" s="11">
-        <f t="shared" ref="L75:S75" si="57">SUM(L70:L74)</f>
+        <f t="shared" ref="L75:S75" si="59">SUM(L70:L74)</f>
         <v>0</v>
       </c>
       <c r="M75" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="N75" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="O75" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1075.1139999999998</v>
       </c>
       <c r="P75" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1087.01</v>
       </c>
       <c r="Q75" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1101.4570000000001</v>
       </c>
       <c r="R75" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1122.8579999999999</v>
       </c>
       <c r="S75" s="11">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>1136.4869999999999</v>
       </c>
-      <c r="T75" s="171">
-        <f t="shared" ref="T75:U75" si="58">SUM(T70:T74)</f>
+      <c r="T75" s="11">
+        <f t="shared" ref="T75:U75" si="60">SUM(T70:T74)</f>
         <v>1146.539</v>
       </c>
       <c r="U75" s="14">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1175.3929999999998</v>
       </c>
     </row>
@@ -16037,15 +16026,15 @@
         <v>469.37000000000012</v>
       </c>
       <c r="L76" s="10">
-        <f t="shared" ref="L76:N76" si="59">L64-L75</f>
+        <f t="shared" ref="L76:N76" si="61">L64-L75</f>
         <v>0</v>
       </c>
       <c r="M76" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N76" s="10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O76" s="10">
@@ -16053,27 +16042,27 @@
         <v>436.83600000000024</v>
       </c>
       <c r="P76" s="10">
-        <f t="shared" ref="P76:S76" si="60">P64-P75</f>
+        <f t="shared" ref="P76:S76" si="62">P64-P75</f>
         <v>419.9050000000002</v>
       </c>
       <c r="Q76" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>431.35899999999992</v>
       </c>
       <c r="R76" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>441.99800000000005</v>
       </c>
       <c r="S76" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>469.37000000000012</v>
       </c>
-      <c r="T76" s="170">
-        <f t="shared" ref="T76:U76" si="61">T64-T75</f>
+      <c r="T76" s="10">
+        <f t="shared" ref="T76:U76" si="63">T64-T75</f>
         <v>472.29299999999989</v>
       </c>
       <c r="U76" s="15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>486.36500000000024</v>
       </c>
     </row>
@@ -16101,7 +16090,6 @@
         <f>-G18/(G74+G65)</f>
         <v>3.5104577702357344E-2</v>
       </c>
-      <c r="T78" s="177"/>
       <c r="U78" s="16"/>
     </row>
     <row r="79" spans="2:21" x14ac:dyDescent="0.25">
@@ -16120,12 +16108,10 @@
     </row>
     <row r="96" spans="7:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G96" s="41"/>
-      <c r="T96" s="178"/>
       <c r="U96" s="41"/>
     </row>
     <row r="97" spans="7:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G97" s="16"/>
-      <c r="T97" s="177"/>
       <c r="U97" s="16"/>
     </row>
   </sheetData>
@@ -16700,27 +16686,27 @@
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3">
-        <f>M16/I16-1</f>
+        <f t="shared" ref="M22:R22" si="3">M16/I16-1</f>
         <v>0.15555555555555545</v>
       </c>
       <c r="N22" s="3">
-        <f>N16/J16-1</f>
+        <f t="shared" si="3"/>
         <v>0.17391304347826098</v>
       </c>
       <c r="O22" s="3">
-        <f>O16/K16-1</f>
+        <f t="shared" si="3"/>
         <v>0.2068965517241379</v>
       </c>
       <c r="P22" s="3">
-        <f>P16/L16-1</f>
+        <f t="shared" si="3"/>
         <v>0.1614173228346456</v>
       </c>
       <c r="Q22" s="3">
-        <f>Q16/M16-1</f>
+        <f t="shared" si="3"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="R22" s="3">
-        <f>R16/N16-1</f>
+        <f t="shared" si="3"/>
         <v>0.1518518518518519</v>
       </c>
     </row>
@@ -16730,27 +16716,27 @@
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3">
-        <f>M19/I19-1</f>
+        <f t="shared" ref="M23:R23" si="4">M19/I19-1</f>
         <v>0.20382165605095537</v>
       </c>
       <c r="N23" s="3">
-        <f>N19/J19-1</f>
+        <f t="shared" si="4"/>
         <v>0.21818181818181825</v>
       </c>
       <c r="O23" s="3">
-        <f>O19/K19-1</f>
+        <f t="shared" si="4"/>
         <v>0.26470588235294112</v>
       </c>
       <c r="P23" s="128">
-        <f>P19/L19-1</f>
+        <f t="shared" si="4"/>
         <v>0.20329670329670324</v>
       </c>
       <c r="Q23" s="128">
-        <f>Q19/M19-1</f>
+        <f t="shared" si="4"/>
         <v>0.19576719576719581</v>
       </c>
       <c r="R23" s="128">
-        <f>R19/N19-1</f>
+        <f t="shared" si="4"/>
         <v>0.17412935323383083</v>
       </c>
     </row>
@@ -25134,14 +25120,14 @@
       <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="159" t="s">
+      <c r="H1" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="162"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -25644,10 +25630,10 @@
         <f t="shared" si="0"/>
         <v>-5.8840262446740788E-2</v>
       </c>
-      <c r="H17" s="162" t="s">
+      <c r="H17" s="163" t="s">
         <v>129</v>
       </c>
-      <c r="I17" s="163"/>
+      <c r="I17" s="164"/>
       <c r="M17" s="78"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -25661,8 +25647,8 @@
         <f t="shared" si="0"/>
         <v>-5.5315782974266647E-2</v>
       </c>
-      <c r="H18" s="164"/>
-      <c r="I18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="166"/>
       <c r="M18" s="78"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -26235,14 +26221,14 @@
         <f t="shared" si="0"/>
         <v>3.2651428464426147E-2</v>
       </c>
-      <c r="H43" s="166" t="s">
+      <c r="H43" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="I43" s="167"/>
-      <c r="J43" s="167"/>
-      <c r="K43" s="167"/>
-      <c r="L43" s="167"/>
-      <c r="M43" s="168"/>
+      <c r="I43" s="168"/>
+      <c r="J43" s="168"/>
+      <c r="K43" s="168"/>
+      <c r="L43" s="168"/>
+      <c r="M43" s="169"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
